--- a/ref/CIT Functional Test _ 30Oct19.xlsx
+++ b/ref/CIT Functional Test _ 30Oct19.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfmcsho\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\S5V4HUF1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn\cit\ng-cit\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6257C5ED-2680-411E-A1C4-CF83BFA2BAD9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE310342-8353-4539-95FE-603709FEB5B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="256"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>No</t>
   </si>
@@ -314,11 +313,17 @@
   <si>
     <t>Edit Shipment Fail</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -926,12 +931,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679D957-19E2-4399-B860-C91FAF750DE1}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +951,7 @@
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -972,7 +977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -994,8 +999,11 @@
       <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1049,8 +1057,11 @@
         <v>10</v>
       </c>
       <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1067,7 +1078,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1084,7 +1095,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1104,7 +1115,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1124,7 +1135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1164,7 +1175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1204,7 +1215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1221,7 +1232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1241,7 +1252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1399,7 +1410,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{A00BF9F5-00D2-452B-A0BA-0068C2440B81}"/>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ref/CIT Functional Test _ 30Oct19.xlsx
+++ b/ref/CIT Functional Test _ 30Oct19.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\learn\cit\ng-cit\ref\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfmcsho\Documents\Projects\CIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71967CA0-67E7-4F3E-8BFE-1A27C11FDC5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="256"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE310342-8353-4539-95FE-603709FEB5B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$I$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -148,24 +149,19 @@
     <t>/api/company/details</t>
   </si>
   <si>
-    <t>Validation of postcode has to be by country basis. E.g Singpaore 6 digit postcode unable to pass validation now. Double check if backend are returning the regex value for frontend validation?</t>
-  </si>
-  <si>
     <t>/api/shipment/create</t>
   </si>
   <si>
     <t>Shipment Listing</t>
   </si>
   <si>
+    <t>Edit Shipment, fail due to token not provided.</t>
+  </si>
+  <si>
     <t>api/shipment/list</t>
   </si>
   <si>
     <t>Pagination is missing (only loads 20)</t>
-  </si>
-  <si>
-    <t>Filter of shipment list incorrect 
-a. User login under different company but seeing same shipments
-b. Filteration not by CIT</t>
   </si>
   <si>
     <t>Did Pagination applied?</t>
@@ -308,23 +304,123 @@
     </r>
   </si>
   <si>
-    <t>Registration URL invalid</t>
-  </si>
-  <si>
-    <t>Edit Shipment Fail</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>Upload Shipment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Label Print</t>
+  </si>
+  <si>
+    <t>Unable to call label print API Returning error</t>
+  </si>
+  <si>
+    <t>{
+    "status": false,
+    "Message": "Your report has an error and couldn \\'t be processed!\\ Try to output the command using the attribute `command;` and run it manually in the console!"
+}</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Filter of shipment list incorrect 
+a. User login under different company but seeing same shipments
+b. Filteration not by CIT
+c. Add receiver name and receiver city in backend</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>To add on Receiver Name and Receiver city, backend updated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"data": [
+        {
+            "id": 2609,
+            "consignment_no": "MYC0100045041",
+            "customer_reference": "TEST001",
+            "cod": true,
+            "cod_value": 9.3,
+            "packaging_type": "PAR",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            "dest_receiver_name": "Kong Zai",
+            "dest_receiver_city": "Petaling Jaya",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            "service_type": "EXP",
+            "account_code": "F000086",
+            "created_date": "2019-09-10 21:35:18",
+            "status": "New Parcel Created"
+        }</t>
+    </r>
+  </si>
+  <si>
+    <t>Registration URL invalid (Under Email)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Upload shipment fail, check console return object error when file selected </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>( + Pickup date to return empty string instead of none)</t>
+    </r>
+  </si>
+  <si>
+    <t>Manifest</t>
+  </si>
+  <si>
+    <t>Error: Load company detail fail, when go into page</t>
+  </si>
+  <si>
+    <t>Front end</t>
+  </si>
+  <si>
+    <t>Validation of postcode has to be by country basis. E.g Singpaore 6 digit postcode unable to pass validation now. 
+Backend API to get regex available</t>
+  </si>
+  <si>
+    <t>/api/lookup/country-info</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>/api/company/list</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +447,13 @@
       <u/>
       <sz val="11"/>
       <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,13 +517,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>10130</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5961471</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2247900</xdr:rowOff>
@@ -446,7 +549,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12297380" y="352425"/>
+          <a:off x="14202380" y="352425"/>
           <a:ext cx="5951341" cy="2085975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -458,13 +561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>40589</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4808758</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1981199</xdr:rowOff>
@@ -502,13 +605,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>4781550</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2008593</xdr:rowOff>
@@ -546,13 +649,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>85842</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>5724525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>1876424</xdr:rowOff>
@@ -590,23 +693,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>5028395</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>124597</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2103431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C36D2129-CB5C-44C3-B2DD-056D206F45F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20362042-641E-4215-A7DA-169D90E65A2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -622,8 +725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14239875" y="21516975"/>
-          <a:ext cx="4980770" cy="2372497"/>
+          <a:off x="14277976" y="21802726"/>
+          <a:ext cx="5924550" cy="1970080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,24 +1034,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679D957-19E2-4399-B860-C91FAF750DE1}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="18.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="90.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="62.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="90.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -956,24 +1060,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -981,45 +1088,45 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1027,54 +1134,54 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" t="s">
-        <v>56</v>
-      </c>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1082,16 +1189,16 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1100,18 +1207,21 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1119,19 +1229,19 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1140,38 +1250,41 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1180,18 +1293,21 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1199,19 +1315,19 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1220,16 +1336,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1237,18 +1359,21 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1256,161 +1381,284 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="C22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="C23" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="1:9" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:I29" xr:uid="{E748A78C-8841-4DC8-93B5-C46FB8C88209}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/ref/CIT Functional Test _ 30Oct19.xlsx
+++ b/ref/CIT Functional Test _ 30Oct19.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myfmcsho\Documents\Projects\CIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sieww\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71967CA0-67E7-4F3E-8BFE-1A27C11FDC5F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE310342-8353-4539-95FE-603709FEB5B9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$I$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
   <si>
     <t>No</t>
   </si>
@@ -113,13 +112,7 @@
     <t>Africk / Mun Hoe</t>
   </si>
   <si>
-    <t>Not returning Private Address (This should show when the contact created by same user.</t>
-  </si>
-  <si>
     <t>User Password Reset</t>
-  </si>
-  <si>
-    <t>Password Reset API not exist, double check on this</t>
   </si>
   <si>
     <t>My CIT Account</t>
@@ -202,9 +195,6 @@
   </si>
   <si>
     <t>User type, amend SUPERADMIN to SUPERUSER</t>
-  </si>
-  <si>
-    <t>Fail to add user, need to change API URL</t>
   </si>
   <si>
     <t>{
@@ -246,9 +236,6 @@
     "message": "User is not exist, an email has send to them"
 }</t>
     </r>
-  </si>
-  <si>
-    <t>User listing not filter according to company.. There are no parameter passing. Also not all users are displayed. E.g Admin tie to Maxis but not displaying.</t>
   </si>
   <si>
     <t>Email sending for user registration amendment</t>
@@ -313,9 +300,6 @@
     <t>Label Print</t>
   </si>
   <si>
-    <t>Unable to call label print API Returning error</t>
-  </si>
-  <si>
     <t>{
     "status": false,
     "Message": "Your report has an error and couldn \\'t be processed!\\ Try to output the command using the attribute `command;` and run it manually in the console!"
@@ -415,12 +399,128 @@
   <si>
     <t>/api/company/list</t>
   </si>
+  <si>
+    <t>Address Book</t>
+  </si>
+  <si>
+    <r>
+      <t>Unable to edit Address book in Private section. Need to pass in /api/address/list/?address_id=14e704f1-8144-437f-99c5-f95de79d811b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;private=1</t>
+    </r>
+  </si>
+  <si>
+    <t>Backend + Front End</t>
+  </si>
+  <si>
+    <t>Address Search , clicking on page 2 is not changing it's listing content</t>
+  </si>
+  <si>
+    <t>Please default the address book shipper as the User Profile shipper information so that user will not need to choose everytime</t>
+  </si>
+  <si>
+    <t>Ignore case for search text (Updated by Africk)</t>
+  </si>
+  <si>
+    <t>Fail to add user:
+a. Superuser should be able to invite new user
+b. Check backend</t>
+  </si>
+  <si>
+    <t>Backend - Added Parameter for Company ID
+Front end to pass in accordingly</t>
+  </si>
+  <si>
+    <t>Password Reset API not exist, double check on this (Forgot password API)</t>
+  </si>
+  <si>
+    <t>Send API Body data to mun hoe</t>
+  </si>
+  <si>
+    <t>Unable to call label print API Returning error. Check back database</t>
+  </si>
+  <si>
+    <t>Pagination is missing (only loads 20) -  backend available</t>
+  </si>
+  <si>
+    <t>Company Listing</t>
+  </si>
+  <si>
+    <t>Company Search</t>
+  </si>
+  <si>
+    <t>User Search</t>
+  </si>
+  <si>
+    <r>
+      <t>Not returning Private Address (This should show when the contact created by same user..
+Front end to change to /api/address/list/?start=0&amp;length=20&amp;order=full_name&amp;dir=&amp;value=jolin&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>private=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = list both in address book</t>
+    </r>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>no recordsTotal for paging to work</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,13 +558,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -479,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -495,6 +615,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,8 +679,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5961471</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>2247900</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -613,8 +767,8 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4781550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>2008593</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1837143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1034,19 +1188,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4679D957-19E2-4399-B860-C91FAF750DE1}">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="67.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" style="5" customWidth="1"/>
@@ -1055,12 +1210,12 @@
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -1084,12 +1239,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1110,15 +1265,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="175.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1130,53 +1288,60 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:10" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D4" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>12</v>
@@ -1185,52 +1350,58 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>13</v>
@@ -1239,219 +1410,236 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="B16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>31</v>
+      <c r="F16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="B18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1460,81 +1648,90 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>12</v>
@@ -1543,122 +1740,232 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>70</v>
+      <c r="B29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="J29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I29" xr:uid="{E748A78C-8841-4DC8-93B5-C46FB8C88209}"/>
+  <autoFilter ref="A1:I33">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
